--- a/df_2/df_2_3.xlsx
+++ b/df_2/df_2_3.xlsx
@@ -647,357 +647,357 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.4474 %</t>
+          <t>11,4474</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9022 %</t>
+          <t>0,9022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.7317 %</t>
+          <t>0,7317</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8183 %</t>
+          <t>0,8183</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.0937 %</t>
+          <t>1,0937</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.099 %</t>
+          <t>1,099</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.6818 %</t>
+          <t>0,6818</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6046 %</t>
+          <t>0,6046</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.671 %</t>
+          <t>0,671</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.7886 %</t>
+          <t>0,7886</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.8217 %</t>
+          <t>0,8217</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.772 %</t>
+          <t>0,772</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.8485 %</t>
+          <t>0,8485</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.5376 %</t>
+          <t>0,5376</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.6066 %</t>
+          <t>0,6066</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.6205 %</t>
+          <t>0,6205</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6672 %</t>
+          <t>0,6672</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5995 %</t>
+          <t>0,5995</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.6263 %</t>
+          <t>0,6263</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.9719 %</t>
+          <t>0,9719</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.6913 %</t>
+          <t>0,6913</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.7723 %</t>
+          <t>0,7723</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.7106 %</t>
+          <t>0,7106</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.5347 %</t>
+          <t>0,5347</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.7064 %</t>
+          <t>0,7064</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.6133 %</t>
+          <t>0,6133</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.5983 %</t>
+          <t>0,5983</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.7191 %</t>
+          <t>0,7191</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.6657 %</t>
+          <t>0,6657</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.9625 %</t>
+          <t>0,9625</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.5336 %</t>
+          <t>0,5336</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6263 %</t>
+          <t>0,6263</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6061 %</t>
+          <t>0,6061</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.6655 %</t>
+          <t>0,6655</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.648 %</t>
+          <t>0,648</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.675 %</t>
+          <t>0,675</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.5274 %</t>
+          <t>0,5274</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.6558 %</t>
+          <t>0,6558</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.7221 %</t>
+          <t>0,7221</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.6698 %</t>
+          <t>0,6698</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.9178 %</t>
+          <t>0,9178</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.1607 %</t>
+          <t>1,1607</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.7378 %</t>
+          <t>0,7378</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.7079 %</t>
+          <t>0,7079</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.6145 %</t>
+          <t>0,6145</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.6885 %</t>
+          <t>0,6885</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.6246 %</t>
+          <t>0,6246</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.6703 %</t>
+          <t>0,6703</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1.0042 %</t>
+          <t>1,0042</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.6561 %</t>
+          <t>0,6561</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.5809 %</t>
+          <t>0,5809</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.6688 %</t>
+          <t>0,6688</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.6759 %</t>
+          <t>0,6759</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.7348 %</t>
+          <t>0,7348</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.8485 %</t>
+          <t>0,8485</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.6164 %</t>
+          <t>0,6164</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.7772 %</t>
+          <t>0,7772</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>1.1956 %</t>
+          <t>1,1956</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.6976 %</t>
+          <t>0,6976</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.7048 %</t>
+          <t>0,7048</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.6658 %</t>
+          <t>0,6658</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6137 %</t>
+          <t>0,6137</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.8116 %</t>
+          <t>0,8116</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>1.2912 %</t>
+          <t>1,2912</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.7326 %</t>
+          <t>0,7326</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.8236 %</t>
+          <t>0,8236</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.6188 %</t>
+          <t>0,6188</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.6648 %</t>
+          <t>0,6648</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.6529 %</t>
+          <t>0,6529</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.8982 %</t>
+          <t>0,8982</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.4705 %</t>
+          <t>1,4705</t>
         </is>
       </c>
     </row>
@@ -1009,202 +1009,202 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.812 %</t>
+          <t>0,812</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6036 %</t>
+          <t>0,6036</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5162 %</t>
+          <t>0,5162</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.637 %</t>
+          <t>0,637</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.6632 %</t>
+          <t>0,6632</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6184 %</t>
+          <t>0,6184</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7188 %</t>
+          <t>0,7188</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8385 %</t>
+          <t>0,8385</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6171 %</t>
+          <t>0,6171</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.5809 %</t>
+          <t>0,5809</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.7447 %</t>
+          <t>0,7447</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.7263 %</t>
+          <t>0,7263</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.5094 %</t>
+          <t>0,5094</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.6381 %</t>
+          <t>0,6381</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.8133 %</t>
+          <t>0,8133</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.6634 %</t>
+          <t>0,6634</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5818 %</t>
+          <t>0,5818</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5302 %</t>
+          <t>0,5302</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.6621 %</t>
+          <t>0,6621</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.5803 %</t>
+          <t>0,5803</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5037 %</t>
+          <t>0,5037</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.6629 %</t>
+          <t>0,6629</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6705 %</t>
+          <t>0,6705</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.5122 %</t>
+          <t>0,5122</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.7405 %</t>
+          <t>0,7405</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6892 %</t>
+          <t>0,6892</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.633 %</t>
+          <t>0,633</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.7201 %</t>
+          <t>0,7201</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.5604 %</t>
+          <t>0,5604</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.5562 %</t>
+          <t>0,5562</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.5066 %</t>
+          <t>0,5066</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.7018 %</t>
+          <t>0,7018</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.4514 %</t>
+          <t>0,4514</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5955 %</t>
+          <t>0,5955</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5562 %</t>
+          <t>0,5562</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5078 %</t>
+          <t>0,5078</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5055 %</t>
+          <t>0,5055</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5279 %</t>
+          <t>0,5279</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.5042 %</t>
+          <t>0,5042</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.7764 %</t>
+          <t>0,7764</t>
         </is>
       </c>
     </row>
@@ -1216,202 +1216,202 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3.4897 %</t>
+          <t>3,4897</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.4215 %</t>
+          <t>6,4215</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5931 %</t>
+          <t>0,5931</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.6708 %</t>
+          <t>0,6708</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2338 %</t>
+          <t>0,2338</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3117 %</t>
+          <t>0,3117</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.3305 %</t>
+          <t>0,3305</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2362 %</t>
+          <t>0,2362</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2503 %</t>
+          <t>0,2503</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.3549 %</t>
+          <t>0,3549</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.2127 %</t>
+          <t>0,2127</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.2557 %</t>
+          <t>0,2557</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.2449 %</t>
+          <t>0,2449</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.2331 %</t>
+          <t>0,2331</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.4398 %</t>
+          <t>0,4398</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.4773 %</t>
+          <t>0,4773</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.3666 %</t>
+          <t>0,3666</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.256 %</t>
+          <t>0,256</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.2923 %</t>
+          <t>0,2923</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.3853 %</t>
+          <t>0,3853</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.3656 %</t>
+          <t>0,3656</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.2488 %</t>
+          <t>0,2488</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.2028 %</t>
+          <t>0,2028</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.1834 %</t>
+          <t>0,1834</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.218 %</t>
+          <t>0,218</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.2699 %</t>
+          <t>0,2699</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.2862 %</t>
+          <t>0,2862</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.322 %</t>
+          <t>0,322</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.4181 %</t>
+          <t>0,4181</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.5293 %</t>
+          <t>0,5293</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.6219 %</t>
+          <t>0,6219</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.0433 %</t>
+          <t>1,0433</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.8905 %</t>
+          <t>0,8905</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.149 %</t>
+          <t>1,149</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.963 %</t>
+          <t>0,963</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.9753 %</t>
+          <t>0,9753</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.5282 %</t>
+          <t>1,5282</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1.1989 %</t>
+          <t>1,1989</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.1306 %</t>
+          <t>1,1306</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2.3618 %</t>
+          <t>2,3618</t>
         </is>
       </c>
     </row>
